--- a/start/volumetric-map/S1-12/S1-12proteomics.xlsx
+++ b/start/volumetric-map/S1-12/S1-12proteomics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlabyer/Projects/tissue-data-explorer/start/volumetric-map/S1-12/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlabyer/Projects/tde-test-1/tissue-data-explorer/start/volumetric-map/S1-12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B15B98B-E784-694D-A4A0-1BD2FC666D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD4D555-44C0-1846-AB02-B207DE5B0240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="proteomics" sheetId="2" r:id="rId1"/>
@@ -425,7 +425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I181"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -541,7 +543,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>-2.9015</v>
@@ -567,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>-1.0377000000000001</v>
@@ -584,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>-2.3896999999999999</v>
@@ -610,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>-2.9790000000000001</v>
@@ -633,7 +635,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>-2.5331000000000001</v>
@@ -737,7 +739,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>-1.1329</v>
@@ -757,7 +759,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>-0.79590000000000005</v>
@@ -780,7 +782,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>-1.2774000000000001</v>
@@ -806,7 +808,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>-1.5431999999999999</v>
@@ -835,7 +837,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>-0.64880000000000004</v>
@@ -855,7 +857,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>-2.5076999999999998</v>
@@ -881,7 +883,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>-1.5199</v>
@@ -965,7 +967,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>-1.0528999999999999</v>
@@ -985,7 +987,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>-2.7048999999999999</v>
@@ -1002,7 +1004,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0.83520000000000005</v>
@@ -1028,7 +1030,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0.31390000000000001</v>
@@ -1054,7 +1056,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0.45929999999999999</v>
@@ -1083,7 +1085,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>-2.6638000000000002</v>
@@ -1112,7 +1114,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0.15629999999999999</v>
@@ -1187,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>-2.6892999999999998</v>
@@ -1210,7 +1212,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>-0.27260000000000001</v>
@@ -1236,7 +1238,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>-1.4229000000000001</v>
@@ -1259,7 +1261,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>-3.32E-2</v>
@@ -1282,7 +1284,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>-2.4883999999999999</v>
@@ -1302,7 +1304,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0.504</v>
@@ -1328,7 +1330,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>-2.9592999999999998</v>
@@ -1420,7 +1422,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>-1.179</v>
@@ -1446,7 +1448,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42">
         <v>-0.42349999999999999</v>
@@ -1472,7 +1474,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>-0.75070000000000003</v>
@@ -1492,7 +1494,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>-0.4546</v>
@@ -1610,7 +1612,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>0.57079999999999997</v>
@@ -1630,7 +1632,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>-1.8194999999999999</v>
@@ -1659,7 +1661,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>-0.61009999999999998</v>
@@ -1682,7 +1684,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>-2.5228000000000002</v>
@@ -1702,7 +1704,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <v>-1.2703</v>
@@ -1794,7 +1796,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>-1.7253000000000001</v>
@@ -2016,7 +2018,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>0.1157</v>
@@ -2177,7 +2179,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>-0.52359999999999995</v>
@@ -2220,7 +2222,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>0.78339999999999999</v>
@@ -2399,7 +2401,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>-0.57950000000000002</v>
@@ -2485,7 +2487,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>-1.8747</v>
@@ -2502,7 +2504,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>-0.70089999999999997</v>
@@ -2525,7 +2527,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>-2.8273999999999999</v>
@@ -2551,7 +2553,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
         <v>0.80449999999999999</v>
@@ -2574,7 +2576,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90">
         <v>2.4346999999999999</v>
@@ -2686,7 +2688,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>-0.92320000000000002</v>
@@ -2712,7 +2714,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>0.66039999999999999</v>
@@ -2850,7 +2852,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>-2.3826000000000001</v>
@@ -2873,7 +2875,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <v>0.36730000000000002</v>
@@ -3054,7 +3056,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>-2.1034000000000002</v>
@@ -3074,7 +3076,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112">
         <v>-0.22639999999999999</v>
@@ -3243,7 +3245,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120">
         <v>0.81889999999999996</v>
@@ -3269,7 +3271,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121">
         <v>-1.5270999999999999</v>
@@ -3545,7 +3547,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133">
         <v>0.49419999999999997</v>
@@ -3571,7 +3573,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>-1.0517000000000001</v>
@@ -3746,7 +3748,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142">
         <v>-2.3168000000000002</v>
@@ -3933,7 +3935,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150">
         <v>-1.3716999999999999</v>
@@ -3959,7 +3961,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151">
         <v>-1.1967000000000001</v>
@@ -3982,7 +3984,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152">
         <v>-0.48159999999999997</v>
@@ -4005,7 +4007,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153">
         <v>-0.54320000000000002</v>
@@ -4146,7 +4148,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>-0.57820000000000005</v>
@@ -4172,7 +4174,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160">
         <v>-1.5385</v>
@@ -4198,7 +4200,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
         <v>-2.8664000000000001</v>
@@ -4224,7 +4226,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>0.15010000000000001</v>
@@ -4394,7 +4396,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169">
         <v>3.4799999999999998E-2</v>
@@ -4420,7 +4422,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170">
         <v>-1.7751999999999999</v>
@@ -4443,7 +4445,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>-0.85009999999999997</v>
